--- a/storage/laporan-aktivitas-2022.xlsx
+++ b/storage/laporan-aktivitas-2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>PERUBAHAN ASET NETO TIDAK TERIKAT</t>
   </si>
@@ -47,10 +47,10 @@
     <t>SD DES 2021</t>
   </si>
   <si>
-    <t>Jul 2022</t>
-  </si>
-  <si>
-    <t>SD Jul 2022</t>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>SD Aug 2022</t>
   </si>
   <si>
     <t>1. Jasa Administrasi Pinjaman</t>
@@ -129,6 +129,63 @@
   </si>
   <si>
     <t>ASET NETO AKHIR TAHUN</t>
+  </si>
+  <si>
+    <t>13,658,000</t>
+  </si>
+  <si>
+    <t>147,692,944</t>
+  </si>
+  <si>
+    <t>453,623</t>
+  </si>
+  <si>
+    <t>7,280,735</t>
+  </si>
+  <si>
+    <t>186,678,724</t>
+  </si>
+  <si>
+    <t>14,111,623</t>
+  </si>
+  <si>
+    <t>342,652,403</t>
+  </si>
+  <si>
+    <t>-317,225</t>
+  </si>
+  <si>
+    <t>-4,176,647</t>
+  </si>
+  <si>
+    <t>681,336,964</t>
+  </si>
+  <si>
+    <t>-53,887,934</t>
+  </si>
+  <si>
+    <t>-3,248,833</t>
+  </si>
+  <si>
+    <t>681,019,739</t>
+  </si>
+  <si>
+    <t>-61,313,414</t>
+  </si>
+  <si>
+    <t>695,131,362</t>
+  </si>
+  <si>
+    <t>281,338,989</t>
+  </si>
+  <si>
+    <t>3,075,141,596</t>
+  </si>
+  <si>
+    <t>3,488,933,969</t>
+  </si>
+  <si>
+    <t>3,770,272,958</t>
   </si>
 </sst>
 </file>
@@ -546,34 +603,34 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>13658000.0</v>
-      </c>
-      <c r="C6">
-        <v>147692944.0</v>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>15279664.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>122476188.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>453623.0</v>
-      </c>
-      <c r="C7">
-        <v>7280735.0</v>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>487410.46</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4438383.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -581,33 +638,33 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0</v>
-      </c>
-      <c r="C8">
-        <v>186678724.0</v>
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1000000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>14111623.0</v>
-      </c>
-      <c r="C9">
-        <v>342652403.0</v>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>15767074.46</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>127914571.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -620,16 +677,16 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -637,16 +694,16 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -654,16 +711,16 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -671,33 +728,33 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>342652403.0</v>
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>14111623.0</v>
-      </c>
-      <c r="C15">
-        <v>342652403.0</v>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>15767074.46</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>127914571.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -710,16 +767,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -727,33 +784,33 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>-317225.0</v>
-      </c>
-      <c r="C19">
-        <v>-4176647.0</v>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>-323982.09</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-2699676.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -761,16 +818,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -778,33 +835,33 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>681336964.0</v>
-      </c>
-      <c r="C22">
-        <v>-53887934.0</v>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>-5657419503.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-11353233325.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -812,50 +869,50 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0</v>
-      </c>
-      <c r="C23">
-        <v>-3248833.0</v>
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-1552710.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>681019739.0</v>
-      </c>
-      <c r="C24">
-        <v>-61313414.0</v>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>-5657743485.09</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-11357485711.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>695131362.0</v>
-      </c>
-      <c r="C25">
-        <v>281338989.0</v>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>5673510559.55</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>11375795382.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -868,16 +925,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -885,16 +942,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -902,16 +959,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -924,16 +981,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -941,67 +998,67 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
-        <v>695131362.0</v>
-      </c>
-      <c r="C33">
-        <v>281338989.0</v>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>5673510559.55</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>11375795382.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
-        <v>3075141596.0</v>
-      </c>
-      <c r="C34">
-        <v>3488933969.0</v>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>9472557780.79</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>9472557780.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
-        <v>3770272958.0</v>
-      </c>
-      <c r="C35">
-        <v>3770272958.0</v>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>15146068340.34</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>15146068340.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-aktivitas-2022.xlsx
+++ b/storage/laporan-aktivitas-2022.xlsx
@@ -47,10 +47,10 @@
     <t>SD DES 2021</t>
   </si>
   <si>
-    <t>Aug 2022</t>
-  </si>
-  <si>
-    <t>SD Aug 2022</t>
+    <t>Sep 2022</t>
+  </si>
+  <si>
+    <t>SD Sep 2022</t>
   </si>
   <si>
     <t>1. Jasa Administrasi Pinjaman</t>
@@ -730,8 +730,8 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
